--- a/data/trans_dic/P21D_2_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P21D_2_R-Clase-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.00489946294754105</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.002391971262583411</v>
+        <v>0.002391971262583412</v>
       </c>
     </row>
     <row r="5">
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.01729477361448373</v>
+        <v>0.01720886327034219</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.009208484070048858</v>
+        <v>0.007809922468220587</v>
       </c>
     </row>
     <row r="7">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02396831751650878</v>
+        <v>0.02669435797374159</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02322288750753984</v>
+        <v>0.02012916079908726</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01549473400631952</v>
+        <v>0.01557135114319476</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>0.004900529444549408</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.02210718749282269</v>
+        <v>0.02210718749282268</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.01031136663787349</v>
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.00545331084015981</v>
+        <v>0.005581128765818074</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.003041661657048189</v>
+        <v>0.002173569991498184</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03047079901386401</v>
+        <v>0.02943554780916357</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06839025816987718</v>
+        <v>0.06699472708832746</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02447025486675471</v>
+        <v>0.02636623370091392</v>
       </c>
     </row>
     <row r="13">
@@ -728,7 +728,7 @@
         <v>0.01876275617810554</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.03512983059844692</v>
+        <v>0.03512983059844693</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.02581244082513787</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.009114703480147167</v>
+        <v>0.01039989215427714</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02155422961357328</v>
+        <v>0.02273976761272925</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01791980252628444</v>
+        <v>0.01781024003700936</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03249856748881465</v>
+        <v>0.03403932312050367</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05366969153547772</v>
+        <v>0.05393661340365864</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03750710798457529</v>
+        <v>0.03715811613079272</v>
       </c>
     </row>
     <row r="16">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.08032492852101566</v>
+        <v>0.08032492852101568</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.03962276550714318</v>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05115419506263044</v>
+        <v>0.05131743487516395</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0252185425407836</v>
+        <v>0.02493783270889621</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04113277259282903</v>
+        <v>0.04034921215767501</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1255083681616438</v>
+        <v>0.1221333043769386</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06078849463560064</v>
+        <v>0.05994858073481985</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07802474071308994</v>
+        <v>0.07566250248372967</v>
       </c>
     </row>
     <row r="19">
@@ -835,13 +835,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.006128710147512776</v>
+        <v>0.006128710147512775</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.02164978248683002</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.01779341510969955</v>
+        <v>0.01779341510969954</v>
       </c>
     </row>
     <row r="20">
@@ -855,10 +855,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.009967558827915236</v>
+        <v>0.009777315791040901</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.008759213596765189</v>
+        <v>0.008706557579460381</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03548687976170196</v>
+        <v>0.0264483197602116</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04777539241367239</v>
+        <v>0.04823648375681947</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03931025355015273</v>
+        <v>0.03896944310742314</v>
       </c>
     </row>
     <row r="22">
@@ -896,7 +896,7 @@
         <v>0.02461825720553565</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.02335353396347001</v>
+        <v>0.02335353396347</v>
       </c>
     </row>
     <row r="23">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01525473543592189</v>
+        <v>0.01567443985666919</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01879540396228263</v>
+        <v>0.01909388633657613</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01827518608971217</v>
+        <v>0.01872176100827059</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03059746809775285</v>
+        <v>0.03006719197716718</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03232338659476312</v>
+        <v>0.03365907484427769</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02857973031338062</v>
+        <v>0.02934052954229512</v>
       </c>
     </row>
     <row r="25">
@@ -1090,10 +1090,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>4032</v>
+        <v>4012</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>4398</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="8">
@@ -1159,13 +1159,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4720</v>
+        <v>5257</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>4566</v>
+        <v>3958</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>6098</v>
+        <v>6128</v>
       </c>
     </row>
     <row r="12">
@@ -1217,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>838</v>
+        <v>599</v>
       </c>
     </row>
     <row r="15">
@@ -1231,13 +1231,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5754</v>
+        <v>5559</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5924</v>
+        <v>5803</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6741</v>
+        <v>7263</v>
       </c>
     </row>
     <row r="16">
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4665</v>
+        <v>5323</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8347</v>
+        <v>8806</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>16112</v>
+        <v>16013</v>
       </c>
     </row>
     <row r="19">
@@ -1303,13 +1303,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16634</v>
+        <v>17423</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>20784</v>
+        <v>20888</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>33723</v>
+        <v>33409</v>
       </c>
     </row>
     <row r="20">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>13607</v>
+        <v>13651</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>9797</v>
+        <v>9688</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>26921</v>
+        <v>26408</v>
       </c>
     </row>
     <row r="23">
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>33386</v>
+        <v>32488</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>23615</v>
+        <v>23288</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>51066</v>
+        <v>49520</v>
       </c>
     </row>
     <row r="24">
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3541</v>
+        <v>3473</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>4140</v>
+        <v>4115</v>
       </c>
     </row>
     <row r="27">
@@ -1447,13 +1447,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4167</v>
+        <v>3106</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>16971</v>
+        <v>17135</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>18580</v>
+        <v>18419</v>
       </c>
     </row>
     <row r="28">
@@ -1502,13 +1502,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>23270</v>
+        <v>23911</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>30963</v>
+        <v>31454</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>57984</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="31">
@@ -1519,13 +1519,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>46675</v>
+        <v>45866</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>53248</v>
+        <v>55448</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>90678</v>
+        <v>93092</v>
       </c>
     </row>
     <row r="32">
